--- a/РАСП-.xlsx
+++ b/РАСП-.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25C487F-927B-4F9A-A922-77CB8F1CB914}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AB354F-0AD1-4E6B-9EB0-3E1E4AAF0050}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -437,18 +437,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -471,10 +459,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -537,20 +521,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -560,6 +559,32 @@
     <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -892,31 +917,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
   </dxfs>
@@ -1007,20 +1007,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="A15:I19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="A15:I19" totalsRowShown="0" headerRowDxfId="0" dataDxfId="10">
   <autoFilter ref="A15:I19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№ п/п" dataDxfId="8" dataCellStyle="Нейтральный"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Дата проведения " dataDxfId="7" dataCellStyle="Хороший"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Время проведения" dataDxfId="6" dataCellStyle="Хороший"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Преподаватель" dataDxfId="5" dataCellStyle="Хороший"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Номер группы" dataDxfId="4" dataCellStyle="Хороший"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Категория слушателей" dataDxfId="3" dataCellStyle="Хороший"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Место проведения" dataDxfId="2" dataCellStyle="Хороший"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Всего часов" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№ п/п" dataDxfId="9" dataCellStyle="Нейтральный"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Дата проведения " dataDxfId="8" dataCellStyle="Хороший"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Время проведения" dataDxfId="7" dataCellStyle="Хороший"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Преподаватель" dataDxfId="6" dataCellStyle="Хороший"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Номер группы" dataDxfId="5" dataCellStyle="Хороший"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Категория слушателей" dataDxfId="4" dataCellStyle="Хороший"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Место проведения" dataDxfId="3" dataCellStyle="Хороший"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Всего часов" dataDxfId="2">
       <calculatedColumnFormula>((COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-16.40")*L24911)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-18.40")*8)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-15.40")*8)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-14.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-14.10")*5)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-17.55")*5)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-18.40")*8)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-17.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-19.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-12.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-13.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-15.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-17.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-11.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-12.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-14.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-16.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-10.30")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"17.30-19.00")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"16.25-19.00")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"15.40-19.00")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"15.40-17.10")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"13.30-15.00")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.30-14.00")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"11.40-15.00")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"11.25-14.00")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.40-15.30")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.40-14.00")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.40-12.10")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-11.30")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-15.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-13.30")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-15.30")*2))&amp;" ч. "</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Столбец1" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Столбец1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1352,8 +1352,8 @@
   </sheetPr>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,15 +1374,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1391,13 +1391,13 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1406,13 +1406,13 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1421,13 +1421,13 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1436,13 +1436,13 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1451,13 +1451,13 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1466,17 +1466,17 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1485,13 +1485,13 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1500,13 +1500,13 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1515,68 +1515,68 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="13"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1585,136 +1585,136 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:20" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:20" s="36" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="15">
+      <c r="A16" s="23"/>
+      <c r="B16" s="11">
         <v>43839</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="10" t="str">
+      <c r="H16" s="7" t="str">
         <f>((COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-16.40")*L25213)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-18.40")*8)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-15.40")*8)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-14.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-14.10")*5)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-17.55")*5)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-18.40")*8)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-17.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-19.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-12.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-13.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-15.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-17.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-11.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-12.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-14.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-16.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-10.30")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"17.30-19.00")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"16.25-19.00")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"15.40-19.00")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"15.40-17.10")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"13.30-15.00")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.30-14.00")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"11.40-15.00")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"11.25-14.00")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.40-15.30")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.40-14.00")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.40-12.10")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-11.30")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-15.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-13.30")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-15.30")*2))&amp;" ч. "</f>
         <v xml:space="preserve">6 ч. </v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="24">
+      <c r="A17" s="23"/>
+      <c r="B17" s="20">
         <v>43839</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="24">
         <v>1</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="10" t="str">
+      <c r="H17" s="7" t="str">
         <f>((COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-16.40")*L25214)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-18.40")*8)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-15.40")*8)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-14.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-14.10")*5)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-17.55")*5)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-18.40")*8)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-17.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-19.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-12.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-13.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-15.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-17.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-11.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-12.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-14.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-16.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-10.30")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"17.30-19.00")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"16.25-19.00")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"15.40-19.00")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"15.40-17.10")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"13.30-15.00")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.30-14.00")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"11.40-15.00")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"11.25-14.00")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.40-15.30")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.40-14.00")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.40-12.10")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-11.30")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-15.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-13.30")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-15.30")*2))&amp;" ч. "</f>
         <v xml:space="preserve">2 ч. </v>
       </c>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="22" t="s">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="10" t="str">
+      <c r="H18" s="7" t="str">
         <f>((COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-16.40")*L27805)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-18.40")*8)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-15.40")*8)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-14.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-14.10")*5)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-17.55")*5)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-18.40")*8)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-17.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-19.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-12.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-13.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-15.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-17.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-11.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-12.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-14.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-16.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-10.30")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"17.30-19.00")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"16.25-19.00")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"15.40-19.00")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"15.40-17.10")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"13.30-15.00")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.30-14.00")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"11.40-15.00")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"11.25-14.00")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.40-15.30")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.40-14.00")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.40-12.10")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-11.30")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-15.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-13.30")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-15.30")*2))&amp;" ч. "</f>
         <v xml:space="preserve">2 ч. </v>
       </c>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="22" t="s">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="19" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="10" t="str">
+      <c r="H19" s="7" t="str">
         <f>((COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-16.40")*L27807)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-18.40")*8)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-15.40")*8)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-14.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-14.10")*5)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-17.55")*5)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-18.40")*8)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-17.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-19.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-12.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-13.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-15.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-17.10")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-11.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-12.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-14.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-16.25")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"9.00-10.30")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"17.30-19.00")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"16.25-19.00")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"15.40-19.00")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"15.40-17.10")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"13.30-15.00")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.30-14.00")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"11.40-15.00")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"11.25-14.00")*3)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.40-15.30")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.40-14.00")*4)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.40-12.10")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-11.30")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"10.00-15.00")*6)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"12.00-13.30")*2)+(COUNTIFS(Таблица3[Преподаватель],Таблица3[Преподаватель],Таблица3[Время проведения],"14.00-15.30")*2))&amp;" ч. "</f>
         <v xml:space="preserve">2 ч. </v>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
